--- a/recipe_index.xlsx
+++ b/recipe_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\BB Projects\food_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\BB Projects\food_bot_recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C34F84D-FB79-425A-B130-A88DA38EBFF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C146F-7111-4F35-B0EB-88B13F37ED49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{27E00178-C54D-4EA1-B3BF-6C0E3CD891C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{27E00178-C54D-4EA1-B3BF-6C0E3CD891C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakfast" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>https://tasty.co/recipe/balsamic-chicken-and-veggies-meal-prep</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>Peanut Butter Bagels</t>
+  </si>
+  <si>
+    <t>Toast &amp; Lemon Marmalade</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>Greek Yoghurt &amp; Berries</t>
   </si>
 </sst>
 </file>
@@ -99,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,16 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48719365-CA97-429F-A441-624760F3D327}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -436,6 +457,42 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCD1F72-379A-4C90-9CB8-5B6DE75192F6}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
